--- a/data/lifetable.xlsx
+++ b/data/lifetable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="123820"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5CB995C-40B9-5C41-9325-873C5CF21B47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1F6415D4-67F8-D44D-98DC-0C95AE25E99D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="2420" windowWidth="31380" windowHeight="22780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="28720" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lifetable" sheetId="1" r:id="rId1"/>
@@ -2701,9 +2701,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1"/>
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:O1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2713,7 +2715,7 @@
     <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
@@ -2735,9 +2737,8 @@
       <c r="G1" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -2759,9 +2760,8 @@
       <c r="G2" s="6">
         <v>78.709144592285156</v>
       </c>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -2783,9 +2783,8 @@
       <c r="G3" s="6">
         <v>78.188133239746094</v>
       </c>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -2807,9 +2806,8 @@
       <c r="G4" s="6">
         <v>77.220352172851562</v>
       </c>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
@@ -2831,9 +2829,8 @@
       <c r="G5" s="6">
         <v>76.240638732910156</v>
       </c>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
@@ -2855,9 +2852,8 @@
       <c r="G6" s="6">
         <v>75.256393432617188</v>
       </c>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
@@ -2879,9 +2875,8 @@
       <c r="G7" s="6">
         <v>74.268905639648438</v>
       </c>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
@@ -2903,9 +2898,8 @@
       <c r="G8" s="6">
         <v>73.280021667480469</v>
       </c>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
@@ -2927,9 +2921,8 @@
       <c r="G9" s="6">
         <v>72.289779663085938</v>
       </c>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
@@ -2951,9 +2944,8 @@
       <c r="G10" s="6">
         <v>71.29840087890625</v>
       </c>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
@@ -2975,9 +2967,8 @@
       <c r="G11" s="6">
         <v>70.305892944335938</v>
       </c>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>10</v>
       </c>
@@ -2999,9 +2990,8 @@
       <c r="G12" s="6">
         <v>69.312347412109375</v>
       </c>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
@@ -3023,9 +3013,8 @@
       <c r="G13" s="6">
         <v>68.318153381347656</v>
       </c>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>12</v>
       </c>
@@ -3047,9 +3036,8 @@
       <c r="G14" s="6">
         <v>67.32421875</v>
       </c>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>13</v>
       </c>
@@ -3071,9 +3059,8 @@
       <c r="G15" s="6">
         <v>66.332054138183594</v>
       </c>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
@@ -3095,9 +3082,8 @@
       <c r="G16" s="6">
         <v>65.343368530273438</v>
       </c>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
@@ -3119,9 +3105,8 @@
       <c r="G17" s="6">
         <v>64.359359741210938</v>
       </c>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
@@ -3143,9 +3128,8 @@
       <c r="G18" s="6">
         <v>63.380168914794922</v>
       </c>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>17</v>
       </c>
@@ -3167,9 +3151,8 @@
       <c r="G19" s="6">
         <v>62.405559539794922</v>
       </c>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
@@ -3191,9 +3174,8 @@
       <c r="G20" s="6">
         <v>61.435646057128906</v>
       </c>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
@@ -3215,9 +3197,8 @@
       <c r="G21" s="6">
         <v>60.470417022705078</v>
       </c>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>20</v>
       </c>
@@ -3239,9 +3220,8 @@
       <c r="G22" s="6">
         <v>59.509696960449219</v>
       </c>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>21</v>
       </c>
@@ -3263,9 +3243,8 @@
       <c r="G23" s="6">
         <v>58.553569793701172</v>
       </c>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>22</v>
       </c>
@@ -3287,9 +3266,8 @@
       <c r="G24" s="6">
         <v>57.601535797119141</v>
       </c>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>23</v>
       </c>
@@ -3311,9 +3289,8 @@
       <c r="G25" s="6">
         <v>56.652198791503906</v>
       </c>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
@@ -3335,9 +3312,8 @@
       <c r="G26" s="6">
         <v>55.703830718994141</v>
       </c>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>25</v>
       </c>
@@ -3359,9 +3335,8 @@
       <c r="G27" s="6">
         <v>54.755214691162109</v>
       </c>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>26</v>
       </c>
@@ -3383,9 +3358,8 @@
       <c r="G28" s="6">
         <v>53.805946350097656</v>
       </c>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -3407,9 +3381,8 @@
       <c r="G29" s="6">
         <v>52.856269836425781</v>
       </c>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
@@ -3431,9 +3404,8 @@
       <c r="G30" s="6">
         <v>51.906455993652344</v>
       </c>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>29</v>
       </c>
@@ -3455,9 +3427,8 @@
       <c r="G31" s="6">
         <v>50.957008361816406</v>
       </c>
-      <c r="H31" s="9"/>
-    </row>
-    <row r="32" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>30</v>
       </c>
@@ -3479,9 +3450,8 @@
       <c r="G32" s="6">
         <v>50.008323669433594</v>
       </c>
-      <c r="H32" s="9"/>
-    </row>
-    <row r="33" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>31</v>
       </c>
@@ -3503,9 +3473,8 @@
       <c r="G33" s="6">
         <v>49.06060791015625</v>
       </c>
-      <c r="H33" s="9"/>
-    </row>
-    <row r="34" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>32</v>
       </c>
@@ -3527,9 +3496,8 @@
       <c r="G34" s="6">
         <v>48.113811492919922</v>
       </c>
-      <c r="H34" s="9"/>
-    </row>
-    <row r="35" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>33</v>
       </c>
@@ -3551,9 +3519,8 @@
       <c r="G35" s="6">
         <v>47.167774200439453</v>
       </c>
-      <c r="H35" s="9"/>
-    </row>
-    <row r="36" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>34</v>
       </c>
@@ -3575,9 +3542,8 @@
       <c r="G36" s="6">
         <v>46.222282409667969</v>
       </c>
-      <c r="H36" s="9"/>
-    </row>
-    <row r="37" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>35</v>
       </c>
@@ -3599,9 +3565,8 @@
       <c r="G37" s="6">
         <v>45.277332305908203</v>
       </c>
-      <c r="H37" s="9"/>
-    </row>
-    <row r="38" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>36</v>
       </c>
@@ -3623,9 +3588,8 @@
       <c r="G38" s="6">
         <v>44.333362579345703</v>
       </c>
-      <c r="H38" s="9"/>
-    </row>
-    <row r="39" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>37</v>
       </c>
@@ -3647,9 +3611,8 @@
       <c r="G39" s="6">
         <v>43.390995025634766</v>
       </c>
-      <c r="H39" s="9"/>
-    </row>
-    <row r="40" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>38</v>
       </c>
@@ -3671,9 +3634,8 @@
       <c r="G40" s="6">
         <v>42.450653076171875</v>
       </c>
-      <c r="H40" s="9"/>
-    </row>
-    <row r="41" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>39</v>
       </c>
@@ -3695,9 +3657,8 @@
       <c r="G41" s="6">
         <v>41.512680053710938</v>
       </c>
-      <c r="H41" s="9"/>
-    </row>
-    <row r="42" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>40</v>
       </c>
@@ -3719,9 +3680,8 @@
       <c r="G42" s="6">
         <v>40.577426910400391</v>
       </c>
-      <c r="H42" s="9"/>
-    </row>
-    <row r="43" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>41</v>
       </c>
@@ -3743,9 +3703,8 @@
       <c r="G43" s="6">
         <v>39.64508056640625</v>
       </c>
-      <c r="H43" s="9"/>
-    </row>
-    <row r="44" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>42</v>
       </c>
@@ -3767,9 +3726,8 @@
       <c r="G44" s="6">
         <v>38.716163635253906</v>
       </c>
-      <c r="H44" s="9"/>
-    </row>
-    <row r="45" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>43</v>
       </c>
@@ -3791,9 +3749,8 @@
       <c r="G45" s="6">
         <v>37.79168701171875</v>
       </c>
-      <c r="H45" s="9"/>
-    </row>
-    <row r="46" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>44</v>
       </c>
@@ -3815,9 +3772,8 @@
       <c r="G46" s="6">
         <v>36.872840881347656</v>
       </c>
-      <c r="H46" s="9"/>
-    </row>
-    <row r="47" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>45</v>
       </c>
@@ -3839,9 +3795,8 @@
       <c r="G47" s="6">
         <v>35.960525512695312</v>
       </c>
-      <c r="H47" s="9"/>
-    </row>
-    <row r="48" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>46</v>
       </c>
@@ -3863,9 +3818,8 @@
       <c r="G48" s="6">
         <v>35.054813385009766</v>
       </c>
-      <c r="H48" s="9"/>
-    </row>
-    <row r="49" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>47</v>
       </c>
@@ -3887,9 +3841,8 @@
       <c r="G49" s="6">
         <v>34.155647277832031</v>
       </c>
-      <c r="H49" s="9"/>
-    </row>
-    <row r="50" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>48</v>
       </c>
@@ -3911,9 +3864,8 @@
       <c r="G50" s="6">
         <v>33.263553619384766</v>
       </c>
-      <c r="H50" s="9"/>
-    </row>
-    <row r="51" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>49</v>
       </c>
@@ -3935,9 +3887,8 @@
       <c r="G51" s="6">
         <v>32.379047393798828</v>
       </c>
-      <c r="H51" s="9"/>
-    </row>
-    <row r="52" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>50</v>
       </c>
@@ -3959,9 +3910,8 @@
       <c r="G52" s="6">
         <v>31.502285003662109</v>
       </c>
-      <c r="H52" s="9"/>
-    </row>
-    <row r="53" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>51</v>
       </c>
@@ -3983,9 +3933,8 @@
       <c r="G53" s="6">
         <v>30.6331787109375</v>
       </c>
-      <c r="H53" s="9"/>
-    </row>
-    <row r="54" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>52</v>
       </c>
@@ -4007,9 +3956,8 @@
       <c r="G54" s="6">
         <v>29.77131462097168</v>
       </c>
-      <c r="H54" s="9"/>
-    </row>
-    <row r="55" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>53</v>
       </c>
@@ -4031,9 +3979,8 @@
       <c r="G55" s="6">
         <v>28.916275024414062</v>
       </c>
-      <c r="H55" s="9"/>
-    </row>
-    <row r="56" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>54</v>
       </c>
@@ -4055,9 +4002,8 @@
       <c r="G56" s="6">
         <v>28.067785263061523</v>
       </c>
-      <c r="H56" s="9"/>
-    </row>
-    <row r="57" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>55</v>
       </c>
@@ -4079,9 +4025,8 @@
       <c r="G57" s="6">
         <v>27.225883483886719</v>
       </c>
-      <c r="H57" s="9"/>
-    </row>
-    <row r="58" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
         <v>56</v>
       </c>
@@ -4103,9 +4048,8 @@
       <c r="G58" s="6">
         <v>26.390750885009766</v>
       </c>
-      <c r="H58" s="9"/>
-    </row>
-    <row r="59" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>57</v>
       </c>
@@ -4127,9 +4071,8 @@
       <c r="G59" s="6">
         <v>25.562652587890625</v>
       </c>
-      <c r="H59" s="9"/>
-    </row>
-    <row r="60" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>58</v>
       </c>
@@ -4151,9 +4094,8 @@
       <c r="G60" s="6">
         <v>24.741758346557617</v>
       </c>
-      <c r="H60" s="9"/>
-    </row>
-    <row r="61" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
         <v>59</v>
       </c>
@@ -4175,9 +4117,8 @@
       <c r="G61" s="6">
         <v>23.92791748046875</v>
       </c>
-      <c r="H61" s="9"/>
-    </row>
-    <row r="62" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
         <v>60</v>
       </c>
@@ -4199,9 +4140,8 @@
       <c r="G62" s="6">
         <v>23.120759963989258</v>
       </c>
-      <c r="H62" s="9"/>
-    </row>
-    <row r="63" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
         <v>61</v>
       </c>
@@ -4223,9 +4163,8 @@
       <c r="G63" s="6">
         <v>22.320034027099609</v>
       </c>
-      <c r="H63" s="9"/>
-    </row>
-    <row r="64" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
         <v>62</v>
       </c>
@@ -4247,9 +4186,8 @@
       <c r="G64" s="6">
         <v>21.525636672973633</v>
       </c>
-      <c r="H64" s="9"/>
-    </row>
-    <row r="65" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>63</v>
       </c>
@@ -4271,9 +4209,8 @@
       <c r="G65" s="6">
         <v>20.737648010253906</v>
       </c>
-      <c r="H65" s="9"/>
-    </row>
-    <row r="66" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
         <v>64</v>
       </c>
@@ -4295,9 +4232,8 @@
       <c r="G66" s="6">
         <v>19.956836700439453</v>
       </c>
-      <c r="H66" s="9"/>
-    </row>
-    <row r="67" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
         <v>65</v>
       </c>
@@ -4319,9 +4255,8 @@
       <c r="G67" s="6">
         <v>19.184547424316406</v>
       </c>
-      <c r="H67" s="9"/>
-    </row>
-    <row r="68" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>66</v>
       </c>
@@ -4343,9 +4278,8 @@
       <c r="G68" s="6">
         <v>18.422704696655273</v>
       </c>
-      <c r="H68" s="9"/>
-    </row>
-    <row r="69" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
         <v>67</v>
       </c>
@@ -4367,9 +4301,8 @@
       <c r="G69" s="6">
         <v>17.672822952270508</v>
       </c>
-      <c r="H69" s="9"/>
-    </row>
-    <row r="70" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
         <v>68</v>
       </c>
@@ -4391,9 +4324,8 @@
       <c r="G70" s="6">
         <v>16.935344696044922</v>
       </c>
-      <c r="H70" s="9"/>
-    </row>
-    <row r="71" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
         <v>69</v>
       </c>
@@ -4415,9 +4347,8 @@
       <c r="G71" s="6">
         <v>16.209041595458984</v>
       </c>
-      <c r="H71" s="9"/>
-    </row>
-    <row r="72" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
         <v>70</v>
       </c>
@@ -4439,9 +4370,8 @@
       <c r="G72" s="6">
         <v>15.493016242980957</v>
       </c>
-      <c r="H72" s="9"/>
-    </row>
-    <row r="73" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
         <v>71</v>
       </c>
@@ -4463,9 +4393,8 @@
       <c r="G73" s="6">
         <v>14.788053512573242</v>
       </c>
-      <c r="H73" s="9"/>
-    </row>
-    <row r="74" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
         <v>72</v>
       </c>
@@ -4487,9 +4416,8 @@
       <c r="G74" s="6">
         <v>14.09511661529541</v>
       </c>
-      <c r="H74" s="9"/>
-    </row>
-    <row r="75" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
         <v>73</v>
       </c>
@@ -4511,9 +4439,8 @@
       <c r="G75" s="6">
         <v>13.415129661560059</v>
       </c>
-      <c r="H75" s="9"/>
-    </row>
-    <row r="76" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
         <v>74</v>
       </c>
@@ -4535,9 +4462,8 @@
       <c r="G76" s="6">
         <v>12.748764038085938</v>
       </c>
-      <c r="H76" s="9"/>
-    </row>
-    <row r="77" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
         <v>75</v>
       </c>
@@ -4559,9 +4485,8 @@
       <c r="G77" s="6">
         <v>12.09686279296875</v>
       </c>
-      <c r="H77" s="9"/>
-    </row>
-    <row r="78" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
         <v>76</v>
       </c>
@@ -4583,9 +4508,8 @@
       <c r="G78" s="6">
         <v>11.459497451782227</v>
       </c>
-      <c r="H78" s="9"/>
-    </row>
-    <row r="79" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
         <v>77</v>
       </c>
@@ -4607,9 +4531,8 @@
       <c r="G79" s="6">
         <v>10.837123870849609</v>
       </c>
-      <c r="H79" s="9"/>
-    </row>
-    <row r="80" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
         <v>78</v>
       </c>
@@ -4631,9 +4554,8 @@
       <c r="G80" s="6">
         <v>10.231393814086914</v>
       </c>
-      <c r="H80" s="9"/>
-    </row>
-    <row r="81" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
         <v>100</v>
       </c>
@@ -4655,9 +4577,8 @@
       <c r="G81" s="6">
         <v>9.6441354751586914</v>
       </c>
-      <c r="H81" s="9"/>
-    </row>
-    <row r="82" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
         <v>79</v>
       </c>
@@ -4679,9 +4600,8 @@
       <c r="G82" s="6">
         <v>9.0767374038696289</v>
       </c>
-      <c r="H82" s="9"/>
-    </row>
-    <row r="83" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
         <v>80</v>
       </c>
@@ -4703,9 +4623,8 @@
       <c r="G83" s="6">
         <v>8.5288295745849609</v>
       </c>
-      <c r="H83" s="9"/>
-    </row>
-    <row r="84" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
         <v>81</v>
       </c>
@@ -4727,9 +4646,8 @@
       <c r="G84" s="6">
         <v>7.9988722801208496</v>
       </c>
-      <c r="H84" s="9"/>
-    </row>
-    <row r="85" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
         <v>82</v>
       </c>
@@ -4751,9 +4669,8 @@
       <c r="G85" s="6">
         <v>7.488067626953125</v>
       </c>
-      <c r="H85" s="9"/>
-    </row>
-    <row r="86" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
         <v>83</v>
       </c>
@@ -4775,9 +4692,8 @@
       <c r="G86" s="6">
         <v>6.9970641136169434</v>
       </c>
-      <c r="H86" s="9"/>
-    </row>
-    <row r="87" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
         <v>84</v>
       </c>
@@ -4799,9 +4715,8 @@
       <c r="G87" s="6">
         <v>6.5283656120300293</v>
       </c>
-      <c r="H87" s="9"/>
-    </row>
-    <row r="88" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
         <v>85</v>
       </c>
@@ -4823,9 +4738,8 @@
       <c r="G88" s="6">
         <v>6.085850715637207</v>
       </c>
-      <c r="H88" s="9"/>
-    </row>
-    <row r="89" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
         <v>86</v>
       </c>
@@ -4847,9 +4761,8 @@
       <c r="G89" s="6">
         <v>5.6683716773986816</v>
       </c>
-      <c r="H89" s="9"/>
-    </row>
-    <row r="90" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
         <v>87</v>
       </c>
@@ -4871,9 +4784,8 @@
       <c r="G90" s="6">
         <v>5.2756972312927246</v>
       </c>
-      <c r="H90" s="9"/>
-    </row>
-    <row r="91" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
         <v>88</v>
       </c>
@@ -4895,9 +4807,8 @@
       <c r="G91" s="6">
         <v>4.9074783325195312</v>
       </c>
-      <c r="H91" s="9"/>
-    </row>
-    <row r="92" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
         <v>89</v>
       </c>
@@ -4919,9 +4830,8 @@
       <c r="G92" s="6">
         <v>4.5632505416870117</v>
       </c>
-      <c r="H92" s="9"/>
-    </row>
-    <row r="93" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
         <v>90</v>
       </c>
@@ -4943,9 +4853,8 @@
       <c r="G93" s="6">
         <v>4.2424402236938477</v>
       </c>
-      <c r="H93" s="9"/>
-    </row>
-    <row r="94" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
         <v>91</v>
       </c>
@@ -4967,9 +4876,8 @@
       <c r="G94" s="6">
         <v>3.9443731307983398</v>
       </c>
-      <c r="H94" s="9"/>
-    </row>
-    <row r="95" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
         <v>92</v>
       </c>
@@ -4991,9 +4899,8 @@
       <c r="G95" s="6">
         <v>3.6682827472686768</v>
       </c>
-      <c r="H95" s="9"/>
-    </row>
-    <row r="96" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
         <v>93</v>
       </c>
@@ -5015,9 +4922,8 @@
       <c r="G96" s="6">
         <v>3.4133217334747314</v>
       </c>
-      <c r="H96" s="9"/>
-    </row>
-    <row r="97" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
         <v>94</v>
       </c>
@@ -5039,9 +4945,8 @@
       <c r="G97" s="6">
         <v>3.1785728931427002</v>
       </c>
-      <c r="H97" s="9"/>
-    </row>
-    <row r="98" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
         <v>95</v>
       </c>
@@ -5063,9 +4968,8 @@
       <c r="G98" s="6">
         <v>2.9630639553070068</v>
       </c>
-      <c r="H98" s="9"/>
-    </row>
-    <row r="99" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
         <v>96</v>
       </c>
@@ -5087,9 +4991,8 @@
       <c r="G99" s="6">
         <v>2.7657802104949951</v>
       </c>
-      <c r="H99" s="9"/>
-    </row>
-    <row r="100" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
         <v>97</v>
       </c>
@@ -5111,9 +5014,8 @@
       <c r="G100" s="6">
         <v>2.5856773853302002</v>
       </c>
-      <c r="H100" s="9"/>
-    </row>
-    <row r="101" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
         <v>98</v>
       </c>
@@ -5135,9 +5037,8 @@
       <c r="G101" s="6">
         <v>2.4216964244842529</v>
       </c>
-      <c r="H101" s="9"/>
-    </row>
-    <row r="102" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
         <v>99</v>
       </c>
@@ -5159,9 +5060,8 @@
       <c r="G102" s="8">
         <v>2.2727744579315186</v>
       </c>
-      <c r="H102" s="9"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>107</v>
       </c>
@@ -5171,7 +5071,6 @@
       <c r="E103" s="17"/>
       <c r="F103" s="17"/>
       <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5183,7 +5082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DE2715-91FB-D74F-A1B8-A5A09A6B128A}">
   <dimension ref="A1:P121"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -8111,7 +8010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105802D5-3D79-6349-BEF9-4028D2638689}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
